--- a/file.xlsx
+++ b/file.xlsx
@@ -11,16 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Num of Cust</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>jradtkey@gmail.com</t>
   </si>
@@ -28,22 +19,13 @@
     <t>Jared</t>
   </si>
   <si>
-    <t>scarlettbetty3@gmail.com</t>
-  </si>
-  <si>
     <t>Betty</t>
-  </si>
-  <si>
-    <t>hairbythisbetty@gmail.com</t>
   </si>
   <si>
     <t>Sue</t>
   </si>
   <si>
     <t>Sophie</t>
-  </si>
-  <si>
-    <t>oinoinoinoinoino</t>
   </si>
   <si>
     <t>Alana</t>
@@ -114,63 +96,52 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>jradtkey@gmail.com</t>
   </si>
@@ -19,16 +19,43 @@
     <t>Jared</t>
   </si>
   <si>
+    <t>my email</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>slkvnslknvlksnv</t>
+  </si>
+  <si>
     <t>Betty</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>soinsfoivnsoi</t>
   </si>
   <si>
     <t>Sue</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>Sophie</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>Alana</t>
+  </si>
+  <si>
+    <t>poop</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -96,30 +123,39 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>1.0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -127,10 +163,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -138,10 +177,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>5.0</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>jradtkey@gmail.com</t>
   </si>
@@ -19,43 +19,16 @@
     <t>Jared</t>
   </si>
   <si>
-    <t>my email</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>slkvnslknvlksnv</t>
-  </si>
-  <si>
     <t>Betty</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>soinsfoivnsoi</t>
   </si>
   <si>
     <t>Sue</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>Sophie</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Alana</t>
-  </si>
-  <si>
-    <t>poop</t>
-  </si>
-  <si>
-    <t>pink</t>
+    <t>Harry</t>
   </si>
 </sst>
 </file>
@@ -123,39 +96,42 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="C1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f t="shared" ref="D1:D27" si="1">IF(MOD(C1,2), "odd", "even")</f>
+        <v>odd</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
       </c>
     </row>
     <row r="4">
@@ -163,13 +139,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
       </c>
     </row>
     <row r="5">
@@ -177,14 +154,441 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>odd</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>even</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
